--- a/java-example-jxls/src/main/resources/jxls/user.xlsx
+++ b/java-example-jxls/src/main/resources/jxls/user.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conanli-repository\java-example\java-example-jxls\src\main\resources\jxls\"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
